--- a/template/activity_pre_dist.xlsx
+++ b/template/activity_pre_dist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="169">
   <si>
     <t>predecessor_dist</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,14 @@
   </si>
   <si>
     <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D12010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D12020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,9 +874,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1334,15 +1344,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -1350,15 +1360,15 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -1366,7 +1376,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -1374,39 +1384,39 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -1414,71 +1424,71 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -1486,31 +1496,31 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -1518,55 +1528,55 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -1574,15 +1584,15 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -1590,7 +1600,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -1598,7 +1608,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -1606,7 +1616,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -1614,7 +1624,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -1622,7 +1632,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -1630,7 +1640,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -1638,7 +1648,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -1646,7 +1656,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -1654,7 +1664,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -1662,7 +1672,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -1670,7 +1680,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -1678,7 +1688,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -1686,7 +1696,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -1694,7 +1704,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -1702,7 +1712,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -1710,7 +1720,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -1718,7 +1728,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -1726,7 +1736,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>3</v>
@@ -1734,7 +1744,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -1742,7 +1752,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -1750,7 +1760,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -1758,7 +1768,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -1766,7 +1776,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -1774,7 +1784,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -1782,7 +1792,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -1790,7 +1800,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -1798,7 +1808,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -1806,7 +1816,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -1814,7 +1824,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -1822,7 +1832,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -1830,7 +1840,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -1838,7 +1848,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -1846,7 +1856,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -1854,7 +1864,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -1862,7 +1872,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -1870,7 +1880,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -1878,7 +1888,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -1886,7 +1896,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -1894,7 +1904,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -1902,7 +1912,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B129">
         <v>3</v>
@@ -1910,7 +1920,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -1918,7 +1928,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B131">
         <v>3</v>
@@ -1926,7 +1936,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -1934,7 +1944,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -1942,7 +1952,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -1950,7 +1960,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -1958,7 +1968,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -1966,7 +1976,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -1974,7 +1984,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -1982,7 +1992,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -1990,7 +2000,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -1998,7 +2008,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -2006,7 +2016,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -2014,7 +2024,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -2022,7 +2032,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -2030,7 +2040,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -2038,7 +2048,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -2046,7 +2056,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -2054,7 +2064,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -2062,7 +2072,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -2070,7 +2080,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -2078,7 +2088,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -2086,7 +2096,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -2094,7 +2104,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -2102,7 +2112,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -2110,7 +2120,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -2118,7 +2128,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -2126,7 +2136,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -2134,7 +2144,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -2142,7 +2152,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -2150,7 +2160,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -2158,7 +2168,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -2166,7 +2176,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -2174,7 +2184,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -2182,7 +2192,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B164">
         <v>3</v>
@@ -2190,7 +2200,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -2198,7 +2208,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B166">
         <v>3</v>
@@ -2206,7 +2216,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B167">
         <v>3</v>
@@ -2214,7 +2224,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B168">
         <v>3</v>
@@ -2222,7 +2232,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B169">
         <v>3</v>
@@ -2230,14 +2240,31 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
+        <v>163</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>164</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
         <v>165</v>
       </c>
-      <c r="B170">
+      <c r="B172">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/activity_pre_dist.xlsx
+++ b/template/activity_pre_dist.xlsx
@@ -876,8 +876,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>999999999</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">

--- a/template/activity_pre_dist.xlsx
+++ b/template/activity_pre_dist.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$172</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>predecessor_dist</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,9 +147,6 @@
     <t>W10010</t>
   </si>
   <si>
-    <t>W10020</t>
-  </si>
-  <si>
     <t>W10030</t>
   </si>
   <si>
@@ -534,6 +534,22 @@
   </si>
   <si>
     <t>D12020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W10041</t>
+  </si>
+  <si>
+    <t>W10051</t>
+  </si>
+  <si>
+    <t>W10061</t>
+  </si>
+  <si>
+    <t>W10080</t>
+  </si>
+  <si>
+    <t>W10020</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,8 +892,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -888,7 +904,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1192,31 +1208,31 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1224,119 +1240,119 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -1344,47 +1360,47 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1392,7 +1408,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1400,15 +1416,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -1416,7 +1432,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -1424,7 +1440,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -1432,23 +1448,23 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -1456,15 +1472,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -1472,15 +1488,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -1488,31 +1504,31 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -1520,7 +1536,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -1528,15 +1544,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -1544,31 +1560,31 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -1576,7 +1592,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -1584,15 +1600,15 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -1600,7 +1616,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>3</v>
@@ -1608,7 +1624,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B91">
         <v>3</v>
@@ -1616,7 +1632,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B92">
         <v>3</v>
@@ -1624,7 +1640,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>3</v>
@@ -1632,7 +1648,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -1640,7 +1656,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B95">
         <v>3</v>
@@ -1648,7 +1664,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>3</v>
@@ -1656,7 +1672,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -1664,7 +1680,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -1672,7 +1688,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -1680,7 +1696,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -1688,7 +1704,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -1696,7 +1712,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>3</v>
@@ -1704,7 +1720,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>3</v>
@@ -1712,7 +1728,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>3</v>
@@ -1720,7 +1736,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>3</v>
@@ -1728,7 +1744,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -1736,7 +1752,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>3</v>
@@ -1744,7 +1760,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B108">
         <v>3</v>
@@ -1752,7 +1768,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B109">
         <v>3</v>
@@ -1760,7 +1776,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B110">
         <v>3</v>
@@ -1768,7 +1784,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>3</v>
@@ -1776,7 +1792,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>3</v>
@@ -1784,7 +1800,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B113">
         <v>3</v>
@@ -1792,7 +1808,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -1800,7 +1816,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B115">
         <v>3</v>
@@ -1808,7 +1824,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -1816,7 +1832,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B117">
         <v>3</v>
@@ -1824,7 +1840,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -1832,7 +1848,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -1840,7 +1856,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>3</v>
@@ -1848,7 +1864,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>3</v>
@@ -1856,7 +1872,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B122">
         <v>3</v>
@@ -1864,7 +1880,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B123">
         <v>3</v>
@@ -1872,7 +1888,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -1880,7 +1896,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B125">
         <v>3</v>
@@ -1888,7 +1904,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B126">
         <v>3</v>
@@ -1896,7 +1912,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B127">
         <v>3</v>
@@ -1904,7 +1920,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B128">
         <v>3</v>
@@ -1912,7 +1928,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B129">
         <v>3</v>
@@ -1920,7 +1936,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -1928,7 +1944,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B131">
         <v>3</v>
@@ -1936,7 +1952,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B132">
         <v>3</v>
@@ -1944,7 +1960,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B133">
         <v>3</v>
@@ -1952,7 +1968,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B134">
         <v>3</v>
@@ -1960,7 +1976,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -1968,7 +1984,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -1976,7 +1992,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B137">
         <v>3</v>
@@ -1984,7 +2000,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -1992,7 +2008,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B139">
         <v>3</v>
@@ -2000,7 +2016,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B140">
         <v>3</v>
@@ -2008,7 +2024,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B141">
         <v>3</v>
@@ -2016,7 +2032,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -2024,7 +2040,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B143">
         <v>3</v>
@@ -2032,7 +2048,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B144">
         <v>3</v>
@@ -2040,7 +2056,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B145">
         <v>3</v>
@@ -2048,7 +2064,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B146">
         <v>3</v>
@@ -2056,7 +2072,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B147">
         <v>3</v>
@@ -2064,7 +2080,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B148">
         <v>3</v>
@@ -2072,7 +2088,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B149">
         <v>3</v>
@@ -2080,7 +2096,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B150">
         <v>3</v>
@@ -2088,7 +2104,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B151">
         <v>3</v>
@@ -2096,7 +2112,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>3</v>
@@ -2104,7 +2120,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -2112,7 +2128,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B154">
         <v>3</v>
@@ -2120,7 +2136,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B155">
         <v>3</v>
@@ -2128,7 +2144,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B156">
         <v>3</v>
@@ -2136,7 +2152,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B157">
         <v>3</v>
@@ -2144,7 +2160,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B158">
         <v>3</v>
@@ -2152,7 +2168,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B159">
         <v>3</v>
@@ -2160,7 +2176,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B160">
         <v>3</v>
@@ -2168,7 +2184,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B161">
         <v>3</v>
@@ -2176,7 +2192,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -2184,85 +2200,86 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B163">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="B164">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="B165">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B172"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
